--- a/bin/monster.xlsx
+++ b/bin/monster.xlsx
@@ -863,18 +863,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.625" customWidth="1"/>
     <col min="12" max="12" width="16.75" customWidth="1"/>

--- a/bin/monster.xlsx
+++ b/bin/monster.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,240 +242,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>common_0</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group&lt;coordinate&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3],[1,2,3,4],[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[2]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[3]}</t>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[4]}</t>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[5]}</t>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[6]}</t>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[7]}</t>
+  </si>
+  <si>
+    <t>{[1,2,3],[1,2]},{[1],[8]}</t>
+  </si>
+  <si>
+    <t>{[1,2,3,4],[1,2]},{[1],[9]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,15]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,16]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,17]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,18]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,19]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,20]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,21]</t>
+  </si>
+  <si>
+    <t>[11,12,13],[11,12,22]</t>
+  </si>
+  <si>
+    <t>array&lt;bool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[true,false,true]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[true,true]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[true]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group&lt;bool&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[true,false],[true,false],[true,false],[true,false]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;coordinate&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array&lt;int5&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3],[12,11,100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group&lt;int5&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{[1],[2,3,4,5],[1]},{[1,2,3,4,5],[0]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7</t>
+  </si>
+  <si>
+    <t>1,2,3,4,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,13</t>
+  </si>
+  <si>
     <t>role.jobtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common_0</t>
-  </si>
-  <si>
-    <t>swordman_2</t>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coordinate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group&lt;coordinate&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3],[1,2,3,4],[1,2,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[2]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[3]}</t>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[4]}</t>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[5]}</t>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[6]}</t>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[7]}</t>
-  </si>
-  <si>
-    <t>{[1,2,3],[1,2]},{[1],[8]}</t>
-  </si>
-  <si>
-    <t>{[1,2,3,4],[1,2]},{[1],[9]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,11,11,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,14]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,15]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,16]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,17]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,18]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,19]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,20]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,21]</t>
-  </si>
-  <si>
-    <t>[11,12,13],[11,12,22]</t>
-  </si>
-  <si>
-    <t>array&lt;bool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[true,false,true]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[true,true]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[true]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group&lt;bool&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[true,false],[true,false],[true,false],[true,false]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array&lt;coordinate&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array&lt;int5&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3],[12,11,100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group&lt;int5&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{[1],[2,3,4,5],[1]},{[1,2,3,4,5],[0]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,6</t>
-  </si>
-  <si>
-    <t>1,2,3,4,7</t>
-  </si>
-  <si>
-    <t>1,2,3,4,8</t>
-  </si>
-  <si>
-    <t>1,2,3,4,9</t>
-  </si>
-  <si>
-    <t>1,2,3,4,10</t>
-  </si>
-  <si>
-    <t>1,2,3,4,11</t>
-  </si>
-  <si>
-    <t>1,2,3,4,12</t>
-  </si>
-  <si>
-    <t>1,2,3,4,13</t>
+    <t>JOB_NONE</t>
+  </si>
+  <si>
+    <t>ASSASSIN1</t>
+  </si>
+  <si>
+    <t>MAGES2</t>
   </si>
 </sst>
 </file>
@@ -863,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -898,43 +904,43 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -948,46 +954,46 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1001,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1015,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1024,31 +1030,31 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1060,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1069,31 +1075,31 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1105,7 +1111,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1114,25 +1120,25 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1142,7 +1148,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1151,25 +1157,25 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1181,7 +1187,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1190,25 +1196,25 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1222,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1231,25 +1237,25 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1261,7 +1267,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1270,25 +1276,25 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1302,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1311,25 +1317,25 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1343,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -1352,25 +1358,25 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
         <v>49</v>
-      </c>
-      <c r="L12" t="s">
-        <v>51</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">

--- a/bin/monster.xlsx
+++ b/bin/monster.xlsx
@@ -870,7 +870,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
